--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_25_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_25_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2711002.1266857</v>
+        <v>-2713923.371669952</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16133112.77539964</v>
+        <v>16133112.77539965</v>
       </c>
     </row>
     <row r="11">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34.88448735196069</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>34.88448735196069</v>
+        <v>13.79223673232705</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,10 +917,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>32.21140045680232</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>27.9484870938677</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>14.02109506150097</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>18.20424464057147</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>34.88448735196069</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -990,16 +990,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>30.72625645960696</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>34.88448735196069</v>
+        <v>34.88448735196206</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>7.336611653512676</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>34.88448735196206</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>23.3896448060955</v>
       </c>
       <c r="Y6" t="n">
-        <v>34.88448735196069</v>
+        <v>34.88448735196206</v>
       </c>
     </row>
     <row r="7">
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>36.36478049392363</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1175,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>23.65357118422321</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>12.71120930970042</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="Y8" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,31 +1209,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.98456631779126</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>92.66494928910228</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>92.66494928910228</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>65.63472101604999</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>33.84730027516771</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>14.34273879062268</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1266,13 +1266,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>33.42924826805087</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>199.1961742994386</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1427,16 +1427,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>358.9477566937055</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>30.02021748811269</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>202.4425172951288</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,10 +1622,10 @@
         <v>410.1644063769637</v>
       </c>
       <c r="H14" t="n">
-        <v>286.8518683469698</v>
+        <v>286.8518683469699</v>
       </c>
       <c r="I14" t="n">
-        <v>12.38037836605486</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.93034877516563</v>
+        <v>91.93034877516573</v>
       </c>
       <c r="T14" t="n">
-        <v>200.6028050067862</v>
+        <v>200.6028050067863</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9345864167827</v>
+        <v>123.7636335898677</v>
       </c>
       <c r="V14" t="n">
-        <v>254.7594172453494</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I15" t="n">
-        <v>4.866200902188965</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T15" t="n">
         <v>189.0833237787849</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>28.50682753627925</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1783,7 +1783,7 @@
         <v>141.7347076965137</v>
       </c>
       <c r="I16" t="n">
-        <v>86.13649374674405</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>73.6576746544297</v>
+        <v>73.65767465442973</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>79.94816948480243</v>
+        <v>286.1933087134791</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187938</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D17" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894976</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G17" t="n">
-        <v>378.5542040247499</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H17" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295188</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545725</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U17" t="n">
-        <v>219.324384064569</v>
+        <v>219.3243840645686</v>
       </c>
       <c r="V17" t="n">
-        <v>296.1420561179211</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W17" t="n">
-        <v>317.6307663651992</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X17" t="n">
-        <v>338.1208983262552</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038398</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902188965</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T18" t="n">
         <v>189.0833237787849</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297235</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C19" t="n">
-        <v>135.636618746414</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659986</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943554</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G19" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453025</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221589</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2386502424835</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T19" t="n">
-        <v>186.4872700401422</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612653</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V19" t="n">
-        <v>220.5274409716142</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W19" t="n">
-        <v>254.9127959843772</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.974450999881</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.1236393112669</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187938</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D20" t="n">
-        <v>323.0728392684692</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E20" t="n">
-        <v>350.3201677200481</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F20" t="n">
-        <v>375.2658433894977</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G20" t="n">
-        <v>378.55420402475</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H20" t="n">
-        <v>255.2416659947561</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295194</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T20" t="n">
-        <v>168.9926026545725</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U20" t="n">
-        <v>219.324384064569</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V20" t="n">
-        <v>296.1420561179212</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W20" t="n">
-        <v>317.6307663651993</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X20" t="n">
-        <v>338.1208983262553</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.6277363038399</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902188965</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T21" t="n">
         <v>189.0833237787849</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.2217778297235</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C22" t="n">
-        <v>135.6366187464141</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D22" t="n">
-        <v>117.0052706659986</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E22" t="n">
-        <v>114.8237602943554</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F22" t="n">
-        <v>113.8108456707175</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G22" t="n">
-        <v>134.0758985510284</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H22" t="n">
-        <v>110.1245053442999</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.5262913945303</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221595</v>
+        <v>42.04747230221603</v>
       </c>
       <c r="S22" t="n">
-        <v>152.2386502424835</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T22" t="n">
-        <v>186.4872700401422</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5831063612653</v>
+        <v>254.5831063612648</v>
       </c>
       <c r="V22" t="n">
-        <v>220.5274409716143</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W22" t="n">
-        <v>254.9127959843773</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X22" t="n">
-        <v>194.0994530368234</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.974450999881</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="23">
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D23" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E23" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F23" t="n">
-        <v>375.2658433894976</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G23" t="n">
-        <v>378.5542040247499</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H23" t="n">
         <v>255.2416659947559</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295182</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V23" t="n">
-        <v>296.1420561179211</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W23" t="n">
-        <v>317.6307663651992</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X23" t="n">
-        <v>338.1208983262552</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038398</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I24" t="n">
-        <v>4.866200902188965</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C25" t="n">
-        <v>135.636618746414</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D25" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453019</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221584</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T25" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U25" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V25" t="n">
         <v>220.5274409716141</v>
@@ -2539,10 +2539,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X25" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="26">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D26" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E26" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F26" t="n">
-        <v>375.2658433894976</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G26" t="n">
-        <v>378.5542040247499</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H26" t="n">
         <v>255.2416659947559</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295182</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V26" t="n">
-        <v>296.1420561179211</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W26" t="n">
-        <v>317.6307663651992</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X26" t="n">
-        <v>338.1208983262552</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038398</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I27" t="n">
-        <v>4.866200902188965</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C28" t="n">
-        <v>135.636618746414</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G28" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453019</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221584</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V28" t="n">
         <v>220.5274409716141</v>
@@ -2776,10 +2776,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X28" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187938</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D29" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F29" t="n">
-        <v>375.2658433894976</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G29" t="n">
-        <v>378.5542040247499</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H29" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295188</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545725</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U29" t="n">
-        <v>219.324384064569</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V29" t="n">
-        <v>296.1420561179211</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W29" t="n">
-        <v>317.6307663651992</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X29" t="n">
-        <v>338.1208983262552</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038398</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I30" t="n">
-        <v>4.866200902188965</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297235</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C31" t="n">
-        <v>135.636618746414</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659986</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943554</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G31" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453025</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221589</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424835</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T31" t="n">
-        <v>186.4872700401422</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612653</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V31" t="n">
-        <v>220.5274409716142</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W31" t="n">
-        <v>254.9127959843772</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.974450999881</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D32" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E32" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
-        <v>375.2658433894976</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G32" t="n">
-        <v>378.5542040247499</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H32" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295184</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T32" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645695</v>
       </c>
       <c r="V32" t="n">
-        <v>296.1420561179211</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W32" t="n">
-        <v>317.6307663651992</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X32" t="n">
-        <v>338.1208983262552</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038398</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="33">
@@ -3187,25 +3187,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C34" t="n">
-        <v>135.636618746414</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D34" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G34" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.5262913945302</v>
+        <v>54.52629139452997</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221585</v>
+        <v>42.04747230221603</v>
       </c>
       <c r="S34" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T34" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V34" t="n">
         <v>220.5274409716141</v>
@@ -3250,10 +3250,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F35" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894981</v>
       </c>
       <c r="G35" t="n">
         <v>378.5542040247498</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612653</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V37" t="n">
         <v>220.5274409716141</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D38" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E38" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F38" t="n">
-        <v>375.2658433894976</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G38" t="n">
-        <v>378.5542040247499</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H38" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295189</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T38" t="n">
-        <v>168.9926026545725</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U38" t="n">
-        <v>219.324384064569</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V38" t="n">
-        <v>296.1420561179211</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W38" t="n">
-        <v>317.6307663651992</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X38" t="n">
-        <v>338.1208983262552</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038387</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>148.2217778297235</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C40" t="n">
-        <v>135.636618746414</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D40" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943554</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F40" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G40" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H40" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453025</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221588</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S40" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T40" t="n">
-        <v>186.4872700401421</v>
+        <v>186.4872700401422</v>
       </c>
       <c r="U40" t="n">
         <v>254.5831063612652</v>
       </c>
       <c r="V40" t="n">
-        <v>220.5274409716142</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W40" t="n">
-        <v>254.9127959843772</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X40" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.974450999881</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187938</v>
       </c>
       <c r="D41" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E41" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F41" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G41" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H41" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947561</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295189</v>
       </c>
       <c r="T41" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545725</v>
       </c>
       <c r="U41" t="n">
-        <v>219.3243840645688</v>
+        <v>219.324384064569</v>
       </c>
       <c r="V41" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W41" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X41" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297235</v>
       </c>
       <c r="C43" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D43" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659986</v>
       </c>
       <c r="E43" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943554</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G43" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H43" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453026</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221603</v>
+        <v>42.04747230221591</v>
       </c>
       <c r="S43" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424835</v>
       </c>
       <c r="T43" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401422</v>
       </c>
       <c r="U43" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V43" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716142</v>
       </c>
       <c r="W43" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843772</v>
       </c>
       <c r="X43" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.9744509998808</v>
+        <v>186.974450999881</v>
       </c>
     </row>
     <row r="44">
@@ -4189,7 +4189,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U46" t="n">
-        <v>254.5831063612657</v>
+        <v>254.5831063612648</v>
       </c>
       <c r="V46" t="n">
         <v>220.5274409716141</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85.91296759720423</v>
+        <v>84.43537517473122</v>
       </c>
       <c r="C5" t="n">
-        <v>85.91296759720423</v>
+        <v>84.43537517473122</v>
       </c>
       <c r="D5" t="n">
-        <v>85.91296759720423</v>
+        <v>84.43537517473122</v>
       </c>
       <c r="E5" t="n">
-        <v>85.91296759720423</v>
+        <v>84.43537517473122</v>
       </c>
       <c r="F5" t="n">
-        <v>78.96746684800075</v>
+        <v>77.48987442552774</v>
       </c>
       <c r="G5" t="n">
-        <v>43.73061093692935</v>
+        <v>63.55832217065193</v>
       </c>
       <c r="H5" t="n">
-        <v>43.73061093692935</v>
+        <v>63.55832217065193</v>
       </c>
       <c r="I5" t="n">
-        <v>43.73061093692935</v>
+        <v>63.55832217065193</v>
       </c>
       <c r="J5" t="n">
-        <v>43.73061093692935</v>
+        <v>31.02155403246777</v>
       </c>
       <c r="K5" t="n">
-        <v>43.73061093692935</v>
+        <v>2.790758988156965</v>
       </c>
       <c r="L5" t="n">
-        <v>46.30652887678416</v>
+        <v>5.366676928012989</v>
       </c>
       <c r="M5" t="n">
-        <v>80.84217135522525</v>
+        <v>39.90231940645543</v>
       </c>
       <c r="N5" t="n">
-        <v>115.3778138336663</v>
+        <v>74.43796188489787</v>
       </c>
       <c r="O5" t="n">
-        <v>139.5379494078428</v>
+        <v>98.59809745907563</v>
       </c>
       <c r="P5" t="n">
-        <v>139.5379494078428</v>
+        <v>84.43537517473122</v>
       </c>
       <c r="Q5" t="n">
-        <v>139.5379494078428</v>
+        <v>84.43537517473122</v>
       </c>
       <c r="R5" t="n">
-        <v>139.5379494078428</v>
+        <v>84.43537517473122</v>
       </c>
       <c r="S5" t="n">
-        <v>139.5379494078428</v>
+        <v>84.43537517473122</v>
       </c>
       <c r="T5" t="n">
-        <v>139.5379494078428</v>
+        <v>84.43537517473122</v>
       </c>
       <c r="U5" t="n">
-        <v>121.1498235082756</v>
+        <v>84.43537517473122</v>
       </c>
       <c r="V5" t="n">
-        <v>121.1498235082756</v>
+        <v>84.43537517473122</v>
       </c>
       <c r="W5" t="n">
-        <v>121.1498235082756</v>
+        <v>84.43537517473122</v>
       </c>
       <c r="X5" t="n">
-        <v>121.1498235082756</v>
+        <v>84.43537517473122</v>
       </c>
       <c r="Y5" t="n">
-        <v>121.1498235082756</v>
+        <v>84.43537517473122</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>104.3010934967714</v>
+        <v>45.43833374116176</v>
       </c>
       <c r="C6" t="n">
-        <v>69.06423758569994</v>
+        <v>45.43833374116176</v>
       </c>
       <c r="D6" t="n">
-        <v>69.06423758569994</v>
+        <v>45.43833374116176</v>
       </c>
       <c r="E6" t="n">
-        <v>69.06423758569994</v>
+        <v>45.43833374116176</v>
       </c>
       <c r="F6" t="n">
-        <v>69.06423758569994</v>
+        <v>45.43833374116176</v>
       </c>
       <c r="G6" t="n">
-        <v>69.06423758569994</v>
+        <v>45.43833374116176</v>
       </c>
       <c r="H6" t="n">
-        <v>38.02761489922826</v>
+        <v>45.43833374116176</v>
       </c>
       <c r="I6" t="n">
-        <v>38.02761489922826</v>
+        <v>45.43833374116176</v>
       </c>
       <c r="J6" t="n">
-        <v>2.790758988156856</v>
+        <v>10.20147783008896</v>
       </c>
       <c r="K6" t="n">
-        <v>2.790758988156856</v>
+        <v>2.790758988156965</v>
       </c>
       <c r="L6" t="n">
-        <v>37.32640146659794</v>
+        <v>37.32640146659941</v>
       </c>
       <c r="M6" t="n">
-        <v>50.31593027977973</v>
+        <v>71.86204394504185</v>
       </c>
       <c r="N6" t="n">
-        <v>84.85157275822081</v>
+        <v>84.85157275822415</v>
       </c>
       <c r="O6" t="n">
-        <v>119.3872152366619</v>
+        <v>119.3872152366666</v>
       </c>
       <c r="P6" t="n">
-        <v>139.5379494078428</v>
+        <v>139.5379494078483</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.5379494078428</v>
+        <v>104.3010934967755</v>
       </c>
       <c r="R6" t="n">
-        <v>139.5379494078428</v>
+        <v>104.3010934967755</v>
       </c>
       <c r="S6" t="n">
-        <v>139.5379494078428</v>
+        <v>104.3010934967755</v>
       </c>
       <c r="T6" t="n">
-        <v>139.5379494078428</v>
+        <v>104.3010934967755</v>
       </c>
       <c r="U6" t="n">
-        <v>139.5379494078428</v>
+        <v>104.3010934967755</v>
       </c>
       <c r="V6" t="n">
-        <v>139.5379494078428</v>
+        <v>104.3010934967755</v>
       </c>
       <c r="W6" t="n">
-        <v>139.5379494078428</v>
+        <v>104.3010934967755</v>
       </c>
       <c r="X6" t="n">
-        <v>139.5379494078428</v>
+        <v>80.67518965223455</v>
       </c>
       <c r="Y6" t="n">
-        <v>104.3010934967714</v>
+        <v>45.43833374116176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.790758988156856</v>
+        <v>2.790758988156965</v>
       </c>
       <c r="C7" t="n">
-        <v>2.790758988156856</v>
+        <v>2.790758988156965</v>
       </c>
       <c r="D7" t="n">
-        <v>2.790758988156856</v>
+        <v>2.790758988156965</v>
       </c>
       <c r="E7" t="n">
-        <v>2.790758988156856</v>
+        <v>2.790758988156965</v>
       </c>
       <c r="F7" t="n">
-        <v>2.790758988156856</v>
+        <v>2.790758988156965</v>
       </c>
       <c r="G7" t="n">
-        <v>2.790758988156856</v>
+        <v>2.790758988156965</v>
       </c>
       <c r="H7" t="n">
-        <v>2.790758988156856</v>
+        <v>2.790758988156965</v>
       </c>
       <c r="I7" t="n">
-        <v>2.790758988156856</v>
+        <v>2.790758988156965</v>
       </c>
       <c r="J7" t="n">
-        <v>2.790758988156856</v>
+        <v>2.790758988156965</v>
       </c>
       <c r="K7" t="n">
-        <v>2.790758988156856</v>
+        <v>2.790758988156965</v>
       </c>
       <c r="L7" t="n">
-        <v>2.790758988156856</v>
+        <v>2.790758988156965</v>
       </c>
       <c r="M7" t="n">
-        <v>2.790758988156856</v>
+        <v>2.790758988156965</v>
       </c>
       <c r="N7" t="n">
-        <v>2.790758988156856</v>
+        <v>2.790758988156965</v>
       </c>
       <c r="O7" t="n">
-        <v>2.790758988156856</v>
+        <v>2.790758988156965</v>
       </c>
       <c r="P7" t="n">
-        <v>2.790758988156856</v>
+        <v>2.790758988156965</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.790758988156856</v>
+        <v>2.790758988156965</v>
       </c>
       <c r="R7" t="n">
-        <v>2.790758988156856</v>
+        <v>2.790758988156965</v>
       </c>
       <c r="S7" t="n">
-        <v>2.790758988156856</v>
+        <v>2.790758988156965</v>
       </c>
       <c r="T7" t="n">
-        <v>2.790758988156856</v>
+        <v>2.790758988156965</v>
       </c>
       <c r="U7" t="n">
-        <v>2.790758988156856</v>
+        <v>2.790758988156965</v>
       </c>
       <c r="V7" t="n">
-        <v>2.790758988156856</v>
+        <v>2.790758988156965</v>
       </c>
       <c r="W7" t="n">
-        <v>2.790758988156856</v>
+        <v>2.790758988156965</v>
       </c>
       <c r="X7" t="n">
-        <v>2.790758988156856</v>
+        <v>2.790758988156965</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.790758988156856</v>
+        <v>2.790758988156965</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>277.058838278528</v>
+        <v>53.12481901375205</v>
       </c>
       <c r="C8" t="n">
-        <v>240.3267367695142</v>
+        <v>53.12481901375205</v>
       </c>
       <c r="D8" t="n">
-        <v>146.7257778916331</v>
+        <v>53.12481901375205</v>
       </c>
       <c r="E8" t="n">
         <v>53.12481901375205</v>
@@ -4805,13 +4805,13 @@
         <v>7.413195943128183</v>
       </c>
       <c r="K8" t="n">
-        <v>21.18357364821455</v>
+        <v>21.18357364821463</v>
       </c>
       <c r="L8" t="n">
-        <v>75.16870670940378</v>
+        <v>75.16870670940386</v>
       </c>
       <c r="M8" t="n">
-        <v>166.907006505615</v>
+        <v>166.9070065056151</v>
       </c>
       <c r="N8" t="n">
         <v>258.6453063018263</v>
@@ -4823,31 +4823,31 @@
         <v>370.6597971564091</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6597971564091</v>
+        <v>346.7673010107291</v>
       </c>
       <c r="R8" t="n">
-        <v>370.6597971564091</v>
+        <v>253.166342132848</v>
       </c>
       <c r="S8" t="n">
-        <v>370.6597971564091</v>
+        <v>253.166342132848</v>
       </c>
       <c r="T8" t="n">
-        <v>370.6597971564091</v>
+        <v>253.166342132848</v>
       </c>
       <c r="U8" t="n">
-        <v>370.6597971564091</v>
+        <v>253.166342132848</v>
       </c>
       <c r="V8" t="n">
-        <v>370.6597971564091</v>
+        <v>240.3267367695142</v>
       </c>
       <c r="W8" t="n">
-        <v>370.6597971564091</v>
+        <v>146.7257778916331</v>
       </c>
       <c r="X8" t="n">
-        <v>370.6597971564091</v>
+        <v>53.12481901375205</v>
       </c>
       <c r="Y8" t="n">
-        <v>277.058838278528</v>
+        <v>53.12481901375205</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>260.9128116949005</v>
+        <v>228.8043058960295</v>
       </c>
       <c r="C9" t="n">
-        <v>260.9128116949005</v>
+        <v>228.8043058960295</v>
       </c>
       <c r="D9" t="n">
-        <v>167.3118528170194</v>
+        <v>228.8043058960295</v>
       </c>
       <c r="E9" t="n">
-        <v>73.71089393913829</v>
+        <v>228.8043058960295</v>
       </c>
       <c r="F9" t="n">
-        <v>73.71089393913829</v>
+        <v>135.2033470181484</v>
       </c>
       <c r="G9" t="n">
-        <v>73.71089393913829</v>
+        <v>41.60238814026729</v>
       </c>
       <c r="H9" t="n">
-        <v>73.71089393913829</v>
+        <v>41.60238814026729</v>
       </c>
       <c r="I9" t="n">
-        <v>7.413195943128183</v>
+        <v>41.60238814026729</v>
       </c>
       <c r="J9" t="n">
         <v>7.413195943128183</v>
@@ -4893,7 +4893,7 @@
         <v>194.436577061108</v>
       </c>
       <c r="N9" t="n">
-        <v>226.5580308522527</v>
+        <v>286.1748768573193</v>
       </c>
       <c r="O9" t="n">
         <v>317.2247932514008</v>
@@ -4902,31 +4902,31 @@
         <v>370.6597971564091</v>
       </c>
       <c r="Q9" t="n">
-        <v>370.6597971564091</v>
+        <v>356.1721822163862</v>
       </c>
       <c r="R9" t="n">
-        <v>370.6597971564091</v>
+        <v>356.1721822163862</v>
       </c>
       <c r="S9" t="n">
-        <v>370.6597971564091</v>
+        <v>356.1721822163862</v>
       </c>
       <c r="T9" t="n">
-        <v>370.6597971564091</v>
+        <v>356.1721822163862</v>
       </c>
       <c r="U9" t="n">
-        <v>277.058838278528</v>
+        <v>356.1721822163862</v>
       </c>
       <c r="V9" t="n">
-        <v>277.058838278528</v>
+        <v>356.1721822163862</v>
       </c>
       <c r="W9" t="n">
-        <v>277.058838278528</v>
+        <v>322.4052647739106</v>
       </c>
       <c r="X9" t="n">
-        <v>277.058838278528</v>
+        <v>322.4052647739106</v>
       </c>
       <c r="Y9" t="n">
-        <v>277.058838278528</v>
+        <v>322.4052647739106</v>
       </c>
     </row>
     <row r="10">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1879.82957821044</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="C11" t="n">
-        <v>1879.82957821044</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="D11" t="n">
-        <v>1521.56387960369</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E11" t="n">
-        <v>1135.775627005446</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F11" t="n">
-        <v>724.7897222158381</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G11" t="n">
-        <v>309.7172720608345</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V11" t="n">
-        <v>3009.337405520488</v>
+        <v>2678.274518176919</v>
       </c>
       <c r="W11" t="n">
-        <v>2656.568750250374</v>
+        <v>2325.505862906804</v>
       </c>
       <c r="X11" t="n">
-        <v>2656.568750250374</v>
+        <v>1952.040104645725</v>
       </c>
       <c r="Y11" t="n">
-        <v>2266.429418274562</v>
+        <v>1589.466613035921</v>
       </c>
     </row>
     <row r="12">
@@ -5112,10 +5112,10 @@
         <v>176.0213023927786</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
         <v>160.189385922801</v>
@@ -5124,7 +5124,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>923.9108438165264</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="C13" t="n">
-        <v>754.9746608886195</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D13" t="n">
-        <v>604.8580214762837</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E13" t="n">
-        <v>456.9449278938906</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5221,28 +5221,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1645.778206672847</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1356.675339798491</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V13" t="n">
-        <v>1356.675339798491</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W13" t="n">
-        <v>1326.351887790296</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X13" t="n">
-        <v>1326.351887790296</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y13" t="n">
-        <v>1105.559308646766</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1939.756805160359</v>
+        <v>2325.545057758603</v>
       </c>
       <c r="C14" t="n">
-        <v>1570.794288219947</v>
+        <v>1956.582540818192</v>
       </c>
       <c r="D14" t="n">
-        <v>1212.528589613197</v>
+        <v>1598.316842211441</v>
       </c>
       <c r="E14" t="n">
         <v>1212.528589613197</v>
       </c>
       <c r="F14" t="n">
-        <v>801.5426848235893</v>
+        <v>801.5426848235895</v>
       </c>
       <c r="G14" t="n">
-        <v>387.2352036347371</v>
+        <v>387.2352036347373</v>
       </c>
       <c r="H14" t="n">
-        <v>97.48584166810096</v>
+        <v>97.48584166810105</v>
       </c>
       <c r="I14" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J14" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076843</v>
       </c>
       <c r="K14" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951463</v>
       </c>
       <c r="L14" t="n">
         <v>1336.032957050964</v>
       </c>
       <c r="M14" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N14" t="n">
-        <v>2681.771598889757</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O14" t="n">
-        <v>3311.067850233289</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P14" t="n">
-        <v>3813.656640612706</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q14" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R14" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S14" t="n">
-        <v>4156.16151059908</v>
+        <v>4156.161510599079</v>
       </c>
       <c r="T14" t="n">
-        <v>3953.53241463263</v>
+        <v>3953.532414632628</v>
       </c>
       <c r="U14" t="n">
-        <v>3700.063135423758</v>
+        <v>3828.518643329731</v>
       </c>
       <c r="V14" t="n">
-        <v>3442.730390731486</v>
+        <v>3828.518643329731</v>
       </c>
       <c r="W14" t="n">
-        <v>3089.961735461372</v>
+        <v>3475.749988059617</v>
       </c>
       <c r="X14" t="n">
-        <v>2716.495977200292</v>
+        <v>3102.284229798537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2326.35664522448</v>
+        <v>2712.144897822725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I15" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J15" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K15" t="n">
-        <v>519.5985603334506</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L15" t="n">
-        <v>973.3971899277781</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M15" t="n">
-        <v>973.3971899277781</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N15" t="n">
-        <v>1428.524759781582</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O15" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q15" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R15" t="n">
         <v>2555.644190323788</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>949.4789535305802</v>
+        <v>741.1505300672698</v>
       </c>
       <c r="C16" t="n">
-        <v>780.5427706026733</v>
+        <v>572.2143471393629</v>
       </c>
       <c r="D16" t="n">
-        <v>630.4261311903375</v>
+        <v>543.4195718501919</v>
       </c>
       <c r="E16" t="n">
-        <v>482.5130376079444</v>
+        <v>395.5064782677988</v>
       </c>
       <c r="F16" t="n">
-        <v>482.5130376079444</v>
+        <v>395.5064782677988</v>
       </c>
       <c r="G16" t="n">
-        <v>315.1533397258817</v>
+        <v>228.1467803857361</v>
       </c>
       <c r="H16" t="n">
-        <v>171.9869683152618</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I16" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J16" t="n">
-        <v>153.8801783755868</v>
+        <v>153.8801783755867</v>
       </c>
       <c r="K16" t="n">
-        <v>396.9405013869778</v>
+        <v>396.9405013869776</v>
       </c>
       <c r="L16" t="n">
-        <v>763.5004667042035</v>
+        <v>763.5004667042033</v>
       </c>
       <c r="M16" t="n">
         <v>1160.375677726126</v>
       </c>
       <c r="N16" t="n">
-        <v>1553.248699711515</v>
+        <v>1553.248699711514</v>
       </c>
       <c r="O16" t="n">
         <v>1900.114228341785</v>
@@ -5467,19 +5467,19 @@
         <v>2204.76693339754</v>
       </c>
       <c r="U16" t="n">
-        <v>2124.011206645215</v>
+        <v>1915.682783181905</v>
       </c>
       <c r="V16" t="n">
-        <v>1869.326718439328</v>
+        <v>1660.998294976018</v>
       </c>
       <c r="W16" t="n">
-        <v>1579.909548402367</v>
+        <v>1371.581124939057</v>
       </c>
       <c r="X16" t="n">
-        <v>1351.91999750435</v>
+        <v>1143.59157404104</v>
       </c>
       <c r="Y16" t="n">
-        <v>1131.12741836082</v>
+        <v>922.7989948975095</v>
       </c>
     </row>
     <row r="17">
@@ -5501,22 +5501,22 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G17" t="n">
-        <v>342.800273616284</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L17" t="n">
         <v>1336.032957050964</v>
@@ -5525,22 +5525,22 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O17" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T17" t="n">
         <v>4017.391409283565</v>
@@ -5589,31 +5589,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J18" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K18" t="n">
-        <v>519.5985603334506</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L18" t="n">
-        <v>973.3971899277781</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M18" t="n">
-        <v>1357.07436680343</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N18" t="n">
-        <v>1934.929714729833</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O18" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P18" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q18" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R18" t="n">
         <v>2555.644190323788</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502111</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477726</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609054</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039808</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315389</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749447</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897933</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K19" t="n">
         <v>459.5287020443611</v>
@@ -5683,40 +5683,40 @@
         <v>1285.552079040893</v>
       </c>
       <c r="N19" t="n">
-        <v>1709.719201354976</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313939</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028691</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597208</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352545</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966198</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357085</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.504522645593</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="20">
@@ -5735,19 +5735,19 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796676</v>
       </c>
       <c r="G20" t="n">
-        <v>342.800273616284</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J20" t="n">
         <v>337.4933016076839</v>
@@ -5756,46 +5756,46 @@
         <v>766.6831886951454</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889757</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233289</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P20" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400164</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J21" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K21" t="n">
-        <v>519.5985603334506</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L21" t="n">
-        <v>973.3971899277781</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.315654538068</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="N21" t="n">
-        <v>1522.315654538068</v>
+        <v>1551.25253785418</v>
       </c>
       <c r="O21" t="n">
-        <v>1959.694692760353</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P21" t="n">
-        <v>2346.796248312508</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q21" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502115</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477731</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609058</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039811</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315391</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749448</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897933</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K22" t="n">
-        <v>459.528702044361</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M22" t="n">
         <v>1285.552079040893</v>
@@ -5926,34 +5926,34 @@
         <v>2087.878830313935</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028692</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597208</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352546</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966199</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127671</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237504</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.992195357086</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.504522645593</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073045</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y22" t="n">
-        <v>1022.581387254983</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.462641112808</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497865</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796684</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511689</v>
+        <v>84.98040897511598</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076844</v>
+        <v>337.4933016076834</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L23" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889757</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233289</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400164</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437416</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501805</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J24" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K24" t="n">
-        <v>519.5985603334506</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L24" t="n">
-        <v>973.3971899277781</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.315654538068</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N24" t="n">
-        <v>1959.694692760353</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="O24" t="n">
-        <v>1959.694692760353</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P24" t="n">
-        <v>2346.796248312508</v>
+        <v>2322.031270281988</v>
       </c>
       <c r="Q24" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="R24" t="n">
         <v>2555.644190323788</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502107</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477724</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609052</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039806</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J25" t="n">
         <v>185.1742787042785</v>
@@ -6151,46 +6151,46 @@
         <v>459.5287020443612</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040895</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354975</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313938</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.45563102869</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597207</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2121.462641112808</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497865</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E26" t="n">
         <v>1104.234664943807</v>
@@ -6215,22 +6215,22 @@
         <v>725.178257479668</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M26" t="n">
         <v>2001.213713746739</v>
@@ -6242,19 +6242,19 @@
         <v>3311.067850233288</v>
       </c>
       <c r="P26" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283567</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U26" t="n">
         <v>3795.851627400163</v>
@@ -6300,19 +6300,19 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J27" t="n">
         <v>216.557510983586</v>
       </c>
       <c r="K27" t="n">
-        <v>519.5985603334506</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L27" t="n">
-        <v>973.3971899277781</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M27" t="n">
-        <v>1381.83934483395</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N27" t="n">
         <v>1959.694692760353</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502107</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477724</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609052</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039806</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J28" t="n">
         <v>185.1742787042785</v>
@@ -6388,46 +6388,46 @@
         <v>459.5287020443612</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313938</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.45563102869</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597207</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G29" t="n">
-        <v>342.800273616284</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J29" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N29" t="n">
         <v>2681.771598889755</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P29" t="n">
         <v>3813.656640612704</v>
@@ -6485,7 +6485,7 @@
         <v>4142.907144767229</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S29" t="n">
         <v>4188.091007924548</v>
@@ -6494,19 +6494,19 @@
         <v>4017.391409283566</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J30" t="n">
         <v>216.557510983586</v>
       </c>
       <c r="K30" t="n">
-        <v>519.5985603334506</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L30" t="n">
-        <v>973.3971899277781</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M30" t="n">
-        <v>1381.83934483395</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N30" t="n">
-        <v>1959.694692760353</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O30" t="n">
-        <v>1959.694692760353</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P30" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
         <v>2555.644190323788</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502111</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477726</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609054</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039808</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315389</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749447</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897933</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042784</v>
+        <v>185.174278704278</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443607</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902782</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040896</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354976</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313939</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028691</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597208</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352545</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966198</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357085</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645593</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796669</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G32" t="n">
-        <v>342.800273616284</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H32" t="n">
         <v>84.98040897511625</v>
@@ -6698,19 +6698,19 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076843</v>
       </c>
       <c r="K32" t="n">
         <v>766.6831886951454</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M32" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O32" t="n">
         <v>3311.067850233288</v>
@@ -6728,7 +6728,7 @@
         <v>4188.091007924548</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U32" t="n">
         <v>3795.851627400162</v>
@@ -6789,13 +6789,13 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N33" t="n">
-        <v>1959.694692760353</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O33" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
         <v>2555.644190323788</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502107</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477724</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609052</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039806</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897932</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I34" t="n">
         <v>84.98040897511625</v>
@@ -6859,10 +6859,10 @@
         <v>185.1742787042784</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M34" t="n">
         <v>1285.552079040893</v>
@@ -6871,37 +6871,37 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313938</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.45563102869</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597207</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6923,13 @@
         <v>1104.234664943807</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796682</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162846</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511697</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I35" t="n">
         <v>84.98040897511625</v>
@@ -6938,19 +6938,19 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M35" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P35" t="n">
         <v>3813.656640612704</v>
@@ -7023,16 +7023,16 @@
         <v>973.3971899277778</v>
       </c>
       <c r="M36" t="n">
-        <v>1453.289737812102</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N36" t="n">
-        <v>1453.289737812102</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O36" t="n">
-        <v>1959.694692760353</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P36" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q36" t="n">
         <v>2555.644190323788</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609044</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E37" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G37" t="n">
         <v>251.2943450749444</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I37" t="n">
         <v>84.98040897511625</v>
@@ -7099,7 +7099,7 @@
         <v>459.5287020443612</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M37" t="n">
         <v>1285.552079040893</v>
@@ -7129,13 +7129,13 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y37" t="n">
         <v>1022.581387254981</v>
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2121.462641112808</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497865</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D38" t="n">
         <v>1458.093420216583</v>
@@ -7160,28 +7160,28 @@
         <v>1104.234664943807</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796678</v>
+        <v>725.1782574796682</v>
       </c>
       <c r="G38" t="n">
-        <v>342.800273616284</v>
+        <v>342.8002736162846</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511697</v>
       </c>
       <c r="I38" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L38" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N38" t="n">
         <v>2681.771598889755</v>
@@ -7202,19 +7202,19 @@
         <v>4188.091007924548</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y38" t="n">
         <v>2476.132983851461</v>
@@ -7251,22 +7251,22 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J39" t="n">
-        <v>84.98040897511625</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K39" t="n">
-        <v>388.0214583249807</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L39" t="n">
-        <v>841.8200879193082</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M39" t="n">
-        <v>1084.28233189698</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>1662.137679823382</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O39" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P39" t="n">
         <v>2555.644190323788</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502108</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477725</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609053</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039808</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315389</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749447</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897933</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I40" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K40" t="n">
-        <v>459.528702044361</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M40" t="n">
         <v>1285.552079040893</v>
@@ -7345,37 +7345,37 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313938</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028691</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597207</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966198</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357085</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W40" t="n">
         <v>1407.504522645592</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796672</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162837</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511606</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K41" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L41" t="n">
         <v>1336.032957050963</v>
@@ -7424,37 +7424,37 @@
         <v>2681.771598889755</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P41" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T41" t="n">
         <v>4017.391409283565</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="42">
@@ -7482,13 +7482,13 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J42" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K42" t="n">
         <v>519.5985603334505</v>
@@ -7497,19 +7497,19 @@
         <v>973.3971899277778</v>
       </c>
       <c r="M42" t="n">
-        <v>973.3971899277778</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>1551.25253785418</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O42" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P42" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502111</v>
       </c>
       <c r="C43" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477726</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609054</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039808</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315389</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749447</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897933</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443644</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902818</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040896</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354976</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313939</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028691</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597208</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352545</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966198</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357085</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645593</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497862</v>
       </c>
       <c r="D44" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E44" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G44" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951438</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M44" t="n">
         <v>2001.213713746738</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P44" t="n">
         <v>3813.656640612703</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T44" t="n">
         <v>4017.391409283564</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W44" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X44" t="n">
         <v>2834.342818501802</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>89.89576342177176</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J45" t="n">
         <v>216.5575109835859</v>
       </c>
       <c r="K45" t="n">
-        <v>216.5575109835859</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L45" t="n">
-        <v>670.3561405779134</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M45" t="n">
-        <v>1219.274605188202</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N45" t="n">
-        <v>1797.129953114605</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O45" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P45" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7801,10 +7801,10 @@
         <v>140.0574709897931</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K46" t="n">
         <v>459.5287020443612</v>
@@ -7831,10 +7831,10 @@
         <v>2487.049233352543</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U46" t="n">
         <v>1887.747186237502</v>
@@ -9319,7 +9319,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>33.63624132272333</v>
+        <v>33.63624132272318</v>
       </c>
       <c r="K19" t="n">
         <v>106.7437663446525</v>
@@ -9331,7 +9331,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N19" t="n">
-        <v>171.8177168444649</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O19" t="n">
         <v>163.0416663658825</v>
@@ -9574,7 +9574,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P22" t="n">
-        <v>135.0065633140456</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9802,7 +9802,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M25" t="n">
-        <v>178.5096609094477</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N25" t="n">
         <v>171.8177168444618</v>
@@ -9811,7 +9811,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P25" t="n">
-        <v>135.0065633140411</v>
+        <v>135.0065633140404</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -10045,7 +10045,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O28" t="n">
-        <v>163.0416663658843</v>
+        <v>163.0416663658817</v>
       </c>
       <c r="P28" t="n">
         <v>135.0065633140411</v>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.63624132272333</v>
+        <v>33.63624132272278</v>
       </c>
       <c r="K31" t="n">
         <v>106.7437663446525</v>
@@ -10276,7 +10276,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>178.5096609094488</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
         <v>171.8177168444618</v>
@@ -10519,7 +10519,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O34" t="n">
-        <v>163.0416663658848</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
         <v>135.0065633140411</v>
@@ -10993,7 +10993,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O40" t="n">
-        <v>163.0416663658855</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P40" t="n">
         <v>135.0065633140411</v>
@@ -11218,7 +11218,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446559</v>
       </c>
       <c r="L43" t="n">
         <v>162.4747015415544</v>
@@ -22565,16 +22565,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>76.21906906364666</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -22586,22 +22586,22 @@
         <v>9.069265482343781</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>80.64258426171736</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>179.1266962566148</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2407063421153</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22644,13 +22644,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>27.59996593526883</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22668,7 +22668,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -22732,13 +22732,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>47.39929435887774</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23261,7 +23261,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>95.41159008788182</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>27.29018196234807</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>256.5027808484783</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>16.14213605696602</v>
       </c>
     </row>
     <row r="14">
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23549,10 +23549,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>127.1709528269151</v>
       </c>
       <c r="V14" t="n">
-        <v>72.99284122478542</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>120.1086454819331</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>86.13649374674407</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>218.097472392356</v>
       </c>
       <c r="U16" t="n">
-        <v>206.2451392286767</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1191688.590574984</v>
+        <v>1191688.590574985</v>
       </c>
     </row>
     <row r="6">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19327.21330481902</v>
+        <v>19327.21330481903</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="D2" t="n">
         <v>20526.04424660708</v>
@@ -26323,37 +26323,37 @@
         <v>17049.85494854604</v>
       </c>
       <c r="F2" t="n">
-        <v>19168.57954878277</v>
+        <v>19168.57954878275</v>
       </c>
       <c r="G2" t="n">
-        <v>20526.04424660711</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="H2" t="n">
-        <v>20526.04424660711</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="I2" t="n">
         <v>20526.04424660711</v>
       </c>
       <c r="J2" t="n">
-        <v>20526.04424660711</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="K2" t="n">
         <v>20526.04424660711</v>
       </c>
       <c r="L2" t="n">
+        <v>20526.04424660707</v>
+      </c>
+      <c r="M2" t="n">
+        <v>20526.04424660707</v>
+      </c>
+      <c r="N2" t="n">
+        <v>20526.04424660708</v>
+      </c>
+      <c r="O2" t="n">
         <v>20526.04424660711</v>
       </c>
-      <c r="M2" t="n">
-        <v>20526.04424660708</v>
-      </c>
-      <c r="N2" t="n">
-        <v>20526.04424660711</v>
-      </c>
-      <c r="O2" t="n">
-        <v>20526.04424660708</v>
-      </c>
       <c r="P2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660707</v>
       </c>
     </row>
     <row r="3">
@@ -26366,46 +26366,46 @@
         <v>314444.4864346</v>
       </c>
       <c r="C3" t="n">
-        <v>56271.05156263485</v>
+        <v>56271.05156263705</v>
       </c>
       <c r="D3" t="n">
-        <v>88049.46972945757</v>
+        <v>88049.46972945551</v>
       </c>
       <c r="E3" t="n">
-        <v>728470.1008399347</v>
+        <v>728470.100839935</v>
       </c>
       <c r="F3" t="n">
-        <v>215052.1096963085</v>
+        <v>215052.1096963077</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.161881771</v>
+        <v>25288.16188177116</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9.379164112033322e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>8978.15074079942</v>
+        <v>8978.150740799772</v>
       </c>
       <c r="L3" t="n">
-        <v>39911.87677390406</v>
+        <v>39911.8767739039</v>
       </c>
       <c r="M3" t="n">
-        <v>184096.0922694315</v>
+        <v>184096.0922694316</v>
       </c>
       <c r="N3" t="n">
-        <v>56542.2935957864</v>
+        <v>56542.2935957862</v>
       </c>
       <c r="O3" t="n">
-        <v>9.379164112033322e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.188072928925976e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>330698.4677251938</v>
+        <v>330698.4677251939</v>
       </c>
       <c r="C4" t="n">
-        <v>340674.6247663276</v>
+        <v>340674.6247663269</v>
       </c>
       <c r="D4" t="n">
         <v>312487.2615518147</v>
@@ -26427,34 +26427,34 @@
         <v>15869.84275221455</v>
       </c>
       <c r="F4" t="n">
-        <v>15989.3176839131</v>
+        <v>15989.31768391307</v>
       </c>
       <c r="G4" t="n">
-        <v>47059.20276613302</v>
+        <v>47059.20276613312</v>
       </c>
       <c r="H4" t="n">
-        <v>47059.20276613298</v>
+        <v>47059.20276613312</v>
       </c>
       <c r="I4" t="n">
+        <v>47059.20276613309</v>
+      </c>
+      <c r="J4" t="n">
+        <v>47059.2027661331</v>
+      </c>
+      <c r="K4" t="n">
+        <v>47059.2027661331</v>
+      </c>
+      <c r="L4" t="n">
+        <v>47059.20276613309</v>
+      </c>
+      <c r="M4" t="n">
         <v>47059.20276613306</v>
-      </c>
-      <c r="J4" t="n">
-        <v>47059.20276613305</v>
-      </c>
-      <c r="K4" t="n">
-        <v>47059.20276613302</v>
-      </c>
-      <c r="L4" t="n">
-        <v>47059.20276613306</v>
-      </c>
-      <c r="M4" t="n">
-        <v>47059.20276613309</v>
       </c>
       <c r="N4" t="n">
         <v>47059.20276613309</v>
       </c>
       <c r="O4" t="n">
-        <v>47059.2027661331</v>
+        <v>47059.20276613303</v>
       </c>
       <c r="P4" t="n">
         <v>47059.20276613312</v>
@@ -26470,25 +26470,25 @@
         <v>40741.33736580378</v>
       </c>
       <c r="C5" t="n">
-        <v>43939.64495097123</v>
+        <v>43939.64495097136</v>
       </c>
       <c r="D5" t="n">
         <v>49237.11966583622</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
-        <v>92448.99600060705</v>
+        <v>92448.996000607</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="I5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="J5" t="n">
         <v>95106.4341021553</v>
@@ -26497,19 +26497,19 @@
         <v>95106.4341021553</v>
       </c>
       <c r="L5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="M5" t="n">
         <v>95106.4341021553</v>
       </c>
       <c r="N5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="O5" t="n">
         <v>95106.43410215528</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-666557.0782207786</v>
+        <v>-666676.9613149575</v>
       </c>
       <c r="C6" t="n">
-        <v>-420359.2770333266</v>
+        <v>-420359.2770333282</v>
       </c>
       <c r="D6" t="n">
-        <v>-429247.8067005015</v>
+        <v>-429247.8067004994</v>
       </c>
       <c r="E6" t="n">
-        <v>-801596.4292049964</v>
+        <v>-801944.0481348028</v>
       </c>
       <c r="F6" t="n">
-        <v>-304321.8438320459</v>
+        <v>-304457.5903018275</v>
       </c>
       <c r="G6" t="n">
-        <v>-146927.7545034522</v>
+        <v>-146927.7545034525</v>
       </c>
       <c r="H6" t="n">
-        <v>-121639.5926216811</v>
+        <v>-121639.5926216813</v>
       </c>
       <c r="I6" t="n">
         <v>-121639.5926216813</v>
       </c>
       <c r="J6" t="n">
-        <v>-121639.5926216812</v>
+        <v>-121639.5926216813</v>
       </c>
       <c r="K6" t="n">
-        <v>-130617.7433624806</v>
+        <v>-130617.7433624811</v>
       </c>
       <c r="L6" t="n">
-        <v>-161551.4693955853</v>
+        <v>-161551.4693955852</v>
       </c>
       <c r="M6" t="n">
         <v>-305735.6848911128</v>
       </c>
       <c r="N6" t="n">
-        <v>-178181.8862174677</v>
+        <v>-178181.8862174675</v>
       </c>
       <c r="O6" t="n">
-        <v>-121639.5926216814</v>
+        <v>-121639.5926216811</v>
       </c>
       <c r="P6" t="n">
         <v>-121639.5926216813</v>
@@ -26695,34 +26695,34 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I2" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K2" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M2" t="n">
         <v>31.61020235221394</v>
       </c>
       <c r="N2" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="P2" t="n">
         <v>31.61020235221395</v>
@@ -26738,7 +26738,7 @@
         <v>326.3182277891643</v>
       </c>
       <c r="C3" t="n">
-        <v>375.7370697234875</v>
+        <v>375.7370697234894</v>
       </c>
       <c r="D3" t="n">
         <v>457.5913187641656</v>
@@ -26790,13 +26790,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>34.88448735196069</v>
+        <v>34.88448735196206</v>
       </c>
       <c r="D4" t="n">
         <v>92.66494928910228</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
         <v>1062.255112188953</v>
@@ -26917,16 +26917,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221375</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.49213974509621e-13</v>
       </c>
     </row>
     <row r="3">
@@ -26960,16 +26960,16 @@
         <v>326.3182277891643</v>
       </c>
       <c r="C3" t="n">
-        <v>49.41884193432321</v>
+        <v>49.41884193432514</v>
       </c>
       <c r="D3" t="n">
-        <v>81.8542490406781</v>
+        <v>81.85424904067617</v>
       </c>
       <c r="E3" t="n">
-        <v>632.1853818291324</v>
+        <v>632.1853818291327</v>
       </c>
       <c r="F3" t="n">
-        <v>188.3831700268252</v>
+        <v>188.3831700268245</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>34.88448735196069</v>
+        <v>34.88448735196206</v>
       </c>
       <c r="D4" t="n">
-        <v>57.7804619371416</v>
+        <v>57.78046193714023</v>
       </c>
       <c r="E4" t="n">
-        <v>738.7365061131904</v>
+        <v>738.7365061131908</v>
       </c>
       <c r="F4" t="n">
-        <v>230.8536567866605</v>
+        <v>230.8536567866597</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>34.88448735196069</v>
+        <v>34.88448735196206</v>
       </c>
       <c r="L4" t="n">
-        <v>57.78046193714128</v>
+        <v>57.78046193714013</v>
       </c>
       <c r="M4" t="n">
-        <v>738.7365061131904</v>
+        <v>738.7365061131908</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866605</v>
+        <v>230.8536567866597</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27154,16 +27154,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221375</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>34.88448735196069</v>
+        <v>34.88448735196206</v>
       </c>
       <c r="L4" t="n">
-        <v>57.7804619371416</v>
+        <v>57.78046193714023</v>
       </c>
       <c r="M4" t="n">
-        <v>738.7365061131904</v>
+        <v>738.7365061131908</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866605</v>
+        <v>230.8536567866597</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27397,16 +27397,16 @@
         <v>326.0400019133721</v>
       </c>
       <c r="I2" t="n">
-        <v>83.68241456970696</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J2" t="n">
-        <v>69.70579724700553</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>53.21989217810253</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27418,22 +27418,22 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>80.64258426171736</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>133.1811664518765</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T2" t="n">
-        <v>217.3533046710778</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27476,13 +27476,13 @@
         <v>105.4566448252536</v>
       </c>
       <c r="I3" t="n">
-        <v>75.35636030051944</v>
+        <v>47.75639436525061</v>
       </c>
       <c r="J3" t="n">
         <v>60.52422152698378</v>
       </c>
       <c r="K3" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27500,7 +27500,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>50.38587124096644</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>102.1006281848752</v>
@@ -27564,13 +27564,13 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L4" t="n">
-        <v>47.39929435887774</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>46.68471506615327</v>
       </c>
       <c r="N4" t="n">
-        <v>37.63776203285606</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>55.28283671961447</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>347.8493543115199</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27628,19 +27628,19 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>378.9077493803664</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>324.0053859738348</v>
+        <v>324.0053859738347</v>
       </c>
       <c r="I5" t="n">
-        <v>152.2423081412009</v>
+        <v>152.2423081412006</v>
       </c>
       <c r="J5" t="n">
-        <v>52.84403871183665</v>
+        <v>20.63263825503365</v>
       </c>
       <c r="K5" t="n">
-        <v>27.94848709386869</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -27655,22 +27655,22 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>14.02109506150208</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>59.18859846499319</v>
+        <v>59.18859846499234</v>
       </c>
       <c r="R5" t="n">
-        <v>120.7015430160697</v>
+        <v>120.7015430160692</v>
       </c>
       <c r="S5" t="n">
-        <v>174.5995329980083</v>
+        <v>174.5995329980081</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4836323873894</v>
+        <v>216.4836323873893</v>
       </c>
       <c r="U5" t="n">
-        <v>233.0205682046404</v>
+        <v>251.2248128452119</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27695,7 +27695,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>137.824011636355</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27710,16 +27710,16 @@
         <v>136.5353279943714</v>
       </c>
       <c r="H6" t="n">
-        <v>73.7037818567846</v>
+        <v>104.4300383163915</v>
       </c>
       <c r="I6" t="n">
-        <v>71.69656870443984</v>
+        <v>71.6965687044397</v>
       </c>
       <c r="J6" t="n">
-        <v>15.59698630608669</v>
+        <v>15.59698630608494</v>
       </c>
       <c r="K6" t="n">
-        <v>7.33661165351333</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -27737,13 +27737,13 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>36.8171356215651</v>
+        <v>1.932648269602495</v>
       </c>
       <c r="R6" t="n">
-        <v>95.50088170919329</v>
+        <v>95.50088170919302</v>
       </c>
       <c r="S6" t="n">
-        <v>156.6714117615834</v>
+        <v>156.6714117615833</v>
       </c>
       <c r="T6" t="n">
         <v>196.9071591941057</v>
@@ -27758,10 +27758,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>182.383340397382</v>
       </c>
       <c r="Y6" t="n">
-        <v>170.7982084253437</v>
+        <v>170.7982084253423</v>
       </c>
     </row>
     <row r="7">
@@ -27792,34 +27792,34 @@
         <v>156.2030601436761</v>
       </c>
       <c r="I7" t="n">
-        <v>135.0744384248764</v>
+        <v>135.0744384248763</v>
       </c>
       <c r="J7" t="n">
-        <v>79.09202486169838</v>
+        <v>79.09202486169814</v>
       </c>
       <c r="K7" t="n">
-        <v>50.29326225141787</v>
+        <v>50.29326225141746</v>
       </c>
       <c r="L7" t="n">
-        <v>34.15018385078066</v>
+        <v>34.15018385078015</v>
       </c>
       <c r="M7" t="n">
-        <v>32.71538569773467</v>
+        <v>32.71538569773413</v>
       </c>
       <c r="N7" t="n">
-        <v>24.00059209383207</v>
+        <v>24.00059209383154</v>
       </c>
       <c r="O7" t="n">
-        <v>42.68670304101025</v>
+        <v>42.68670304100976</v>
       </c>
       <c r="P7" t="n">
-        <v>55.78036510486442</v>
+        <v>55.780365104864</v>
       </c>
       <c r="Q7" t="n">
-        <v>94.76870410119923</v>
+        <v>94.76870410119895</v>
       </c>
       <c r="R7" t="n">
-        <v>146.8278906090979</v>
+        <v>146.8278906090977</v>
       </c>
       <c r="S7" t="n">
         <v>212.2085986491046</v>
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>328.9081112770839</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>262.0180923315806</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>289.2654207831595</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27895,10 +27895,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>23.65357118422321</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>100.0310828299331</v>
+        <v>7.366133540830774</v>
       </c>
       <c r="S8" t="n">
         <v>167.1010256612668</v>
@@ -27910,16 +27910,16 @@
         <v>251.1984878605957</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>315.0410491604345</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>256.5760194283107</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>277.0661513893667</v>
       </c>
       <c r="Y8" t="n">
-        <v>293.5729893669513</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,31 +27929,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>150.5486173320761</v>
+        <v>73.86823436076506</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>54.78011627553647</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>64.98013116629866</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>52.4042631042816</v>
       </c>
       <c r="G9" t="n">
-        <v>136.3592641379443</v>
+        <v>43.69431484884203</v>
       </c>
       <c r="H9" t="n">
         <v>102.729632124056</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>65.63472101604999</v>
       </c>
       <c r="J9" t="n">
-        <v>33.84730027516771</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27974,7 +27974,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>14.34273879062268</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>84.5694784127797</v>
@@ -27986,13 +27986,13 @@
         <v>196.197498299121</v>
       </c>
       <c r="U9" t="n">
-        <v>133.2116793033682</v>
+        <v>225.8766285924705</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>218.2657348928687</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C17" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D17" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E17" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F17" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G17" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H17" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605491</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T17" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U17" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V17" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W17" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X17" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C19" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D19" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E19" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F19" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G19" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H19" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I19" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J19" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K19" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L19" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M19" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N19" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O19" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P19" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R19" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S19" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T19" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U19" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V19" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W19" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X19" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605491</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I23" t="n">
-        <v>12.38037836605491</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I26" t="n">
-        <v>12.38037836605491</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C29" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D29" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E29" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F29" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G29" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H29" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I29" t="n">
-        <v>12.38037836605491</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T29" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U29" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V29" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W29" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X29" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605494</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221332</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="35">
@@ -29995,7 +29995,7 @@
         <v>31.61020235221394</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221332</v>
       </c>
       <c r="G35" t="n">
         <v>31.61020235221394</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605494</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221491</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605494</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522138</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522138</v>
       </c>
     </row>
     <row r="44">
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.510500782807989</v>
+        <v>1.510500782807996</v>
       </c>
       <c r="H5" t="n">
-        <v>15.46941614193232</v>
+        <v>15.4694161419324</v>
       </c>
       <c r="I5" t="n">
-        <v>58.23358142920504</v>
+        <v>58.23358142920534</v>
       </c>
       <c r="J5" t="n">
-        <v>128.2018658148496</v>
+        <v>128.2018658148503</v>
       </c>
       <c r="K5" t="n">
-        <v>192.1413639511119</v>
+        <v>192.1413639511129</v>
       </c>
       <c r="L5" t="n">
-        <v>238.3683522829719</v>
+        <v>238.3683522829731</v>
       </c>
       <c r="M5" t="n">
-        <v>265.2307205792334</v>
+        <v>265.2307205792348</v>
       </c>
       <c r="N5" t="n">
-        <v>264.2975509485516</v>
+        <v>264.297550948553</v>
       </c>
       <c r="O5" t="n">
-        <v>254.5023887693397</v>
+        <v>254.502388769341</v>
       </c>
       <c r="P5" t="n">
-        <v>217.2119006937675</v>
+        <v>217.2119006937686</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.1170914094563</v>
+        <v>163.1170914094571</v>
       </c>
       <c r="R5" t="n">
-        <v>94.8839947980624</v>
+        <v>94.8839947980629</v>
       </c>
       <c r="S5" t="n">
-        <v>34.42053658823708</v>
+        <v>34.42053658823725</v>
       </c>
       <c r="T5" t="n">
-        <v>6.612217176741974</v>
+        <v>6.612217176742008</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1208400626246391</v>
+        <v>0.1208400626246397</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8081891688391996</v>
+        <v>0.8081891688392037</v>
       </c>
       <c r="H6" t="n">
-        <v>7.805405920104902</v>
+        <v>7.805405920104942</v>
       </c>
       <c r="I6" t="n">
-        <v>27.82581129556016</v>
+        <v>27.82581129556031</v>
       </c>
       <c r="J6" t="n">
-        <v>76.3561530086193</v>
+        <v>76.35615300861969</v>
       </c>
       <c r="K6" t="n">
-        <v>130.5048273208457</v>
+        <v>130.5048273208463</v>
       </c>
       <c r="L6" t="n">
-        <v>173.4388671318349</v>
+        <v>173.4388671318362</v>
       </c>
       <c r="M6" t="n">
-        <v>155.2547700969494</v>
+        <v>177.0185212739804</v>
       </c>
       <c r="N6" t="n">
-        <v>166.226199435294</v>
+        <v>144.4624482582649</v>
       </c>
       <c r="O6" t="n">
-        <v>177.4807317964051</v>
+        <v>177.4807317964065</v>
       </c>
       <c r="P6" t="n">
-        <v>154.328684354917</v>
+        <v>154.3286843549178</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.1646384644564</v>
+        <v>103.164638464457</v>
       </c>
       <c r="R6" t="n">
-        <v>50.17862225477067</v>
+        <v>50.17862225477093</v>
       </c>
       <c r="S6" t="n">
-        <v>15.01175934225442</v>
+        <v>15.0117593422545</v>
       </c>
       <c r="T6" t="n">
-        <v>3.257569500715895</v>
+        <v>3.257569500715912</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05317034005521051</v>
+        <v>0.05317034005521079</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6775586503210429</v>
+        <v>0.6775586503210465</v>
       </c>
       <c r="H7" t="n">
-        <v>6.024112363763459</v>
+        <v>6.02411236376349</v>
       </c>
       <c r="I7" t="n">
-        <v>20.37603650238191</v>
+        <v>20.37603650238202</v>
       </c>
       <c r="J7" t="n">
-        <v>47.90339657769773</v>
+        <v>47.90339657769798</v>
       </c>
       <c r="K7" t="n">
-        <v>78.71999591911751</v>
+        <v>78.71999591911792</v>
       </c>
       <c r="L7" t="n">
-        <v>100.7344924304576</v>
+        <v>100.7344924304581</v>
       </c>
       <c r="M7" t="n">
-        <v>106.2103982498704</v>
+        <v>106.2103982498709</v>
       </c>
       <c r="N7" t="n">
-        <v>103.6849523714011</v>
+        <v>103.6849523714016</v>
       </c>
       <c r="O7" t="n">
-        <v>95.76983541083254</v>
+        <v>95.76983541083302</v>
       </c>
       <c r="P7" t="n">
-        <v>81.9476389442832</v>
+        <v>81.94763894428361</v>
       </c>
       <c r="Q7" t="n">
-        <v>56.73629752824661</v>
+        <v>56.7362975282469</v>
       </c>
       <c r="R7" t="n">
-        <v>30.46550076807161</v>
+        <v>30.46550076807177</v>
       </c>
       <c r="S7" t="n">
-        <v>11.80799938786763</v>
+        <v>11.80799938786769</v>
       </c>
       <c r="T7" t="n">
-        <v>2.895023324099001</v>
+        <v>2.895023324099016</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03695774456296602</v>
+        <v>0.03695774456296621</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31613,10 +31613,10 @@
         <v>234.7989832111206</v>
       </c>
       <c r="N9" t="n">
-        <v>163.7876250036815</v>
+        <v>224.0066613724356</v>
       </c>
       <c r="O9" t="n">
-        <v>234.1788327264122</v>
+        <v>173.9597963576581</v>
       </c>
       <c r="P9" t="n">
         <v>187.9491588335306</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H14" t="n">
-        <v>52.62293376879731</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I14" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J14" t="n">
-        <v>436.1094324383707</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K14" t="n">
-        <v>653.6149895171638</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L14" t="n">
-        <v>810.8671910869754</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M14" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N14" t="n">
-        <v>916.8452708117594</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O14" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P14" t="n">
-        <v>738.8984405829628</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q14" t="n">
-        <v>554.8819566972013</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R14" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S14" t="n">
-        <v>117.0897208110797</v>
+        <v>117.0897208110796</v>
       </c>
       <c r="T14" t="n">
-        <v>22.49304455734508</v>
+        <v>22.49304455734507</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4110664910537076</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H15" t="n">
-        <v>26.55196259533502</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I15" t="n">
-        <v>94.65617909781103</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J15" t="n">
-        <v>259.7437903115857</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K15" t="n">
-        <v>443.9435090247272</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L15" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N15" t="n">
-        <v>591.066530117479</v>
+        <v>663.5877533333045</v>
       </c>
       <c r="O15" t="n">
-        <v>654.1164009578285</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P15" t="n">
-        <v>524.9860796892352</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T15" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,40 +32151,40 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I16" t="n">
-        <v>69.31398118051423</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J16" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K16" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L16" t="n">
-        <v>342.6725659692049</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M16" t="n">
-        <v>361.3001745754554</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N16" t="n">
-        <v>352.7092639696483</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O16" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P16" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q16" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R16" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S16" t="n">
-        <v>40.167745442275</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T16" t="n">
-        <v>9.848117035925537</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U16" t="n">
         <v>0.1257206430118155</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H17" t="n">
-        <v>52.62293376879731</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I17" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383707</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171638</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L17" t="n">
-        <v>810.8671910869754</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N17" t="n">
-        <v>916.8452708117594</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O17" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829628</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.8819566972013</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R17" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S17" t="n">
-        <v>117.0897208110797</v>
+        <v>117.0897208110796</v>
       </c>
       <c r="T17" t="n">
-        <v>22.49304455734508</v>
+        <v>22.49304455734507</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4110664910537076</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H18" t="n">
-        <v>26.55196259533502</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781103</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J18" t="n">
-        <v>259.7437903115857</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K18" t="n">
-        <v>443.9435090247272</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L18" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M18" t="n">
-        <v>529.6867378368181</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N18" t="n">
-        <v>715.0339827160632</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P18" t="n">
-        <v>524.9860796892352</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T18" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,40 +32388,40 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I19" t="n">
-        <v>69.31398118051423</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J19" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K19" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L19" t="n">
-        <v>342.6725659692049</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M19" t="n">
-        <v>361.3001745754554</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N19" t="n">
-        <v>352.7092639696483</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P19" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R19" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
-        <v>40.167745442275</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925537</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H20" t="n">
-        <v>52.62293376879731</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I20" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383707</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171638</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L20" t="n">
-        <v>810.8671910869754</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N20" t="n">
-        <v>916.8452708117594</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O20" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829628</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.8819566972013</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R20" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S20" t="n">
-        <v>117.0897208110797</v>
+        <v>117.0897208110796</v>
       </c>
       <c r="T20" t="n">
-        <v>22.49304455734508</v>
+        <v>22.49304455734507</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4110664910537076</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H21" t="n">
-        <v>26.55196259533502</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781103</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J21" t="n">
-        <v>259.7437903115857</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K21" t="n">
-        <v>443.9435090247272</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L21" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M21" t="n">
-        <v>696.5971294879671</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O21" t="n">
-        <v>584.393252749783</v>
+        <v>530.1489483592454</v>
       </c>
       <c r="P21" t="n">
-        <v>524.9860796892352</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691328</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S21" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T21" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,40 +32625,40 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I22" t="n">
-        <v>69.31398118051423</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J22" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K22" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L22" t="n">
-        <v>342.6725659692049</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M22" t="n">
-        <v>361.3001745754554</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N22" t="n">
-        <v>352.7092639696483</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O22" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P22" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q22" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R22" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S22" t="n">
-        <v>40.167745442275</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925537</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32701,46 +32701,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H23" t="n">
-        <v>52.62293376879731</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I23" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J23" t="n">
-        <v>436.1094324383707</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K23" t="n">
-        <v>653.6149895171638</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L23" t="n">
-        <v>810.8671910869754</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M23" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N23" t="n">
-        <v>916.8452708117594</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O23" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P23" t="n">
-        <v>738.8984405829628</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q23" t="n">
-        <v>554.8819566972013</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R23" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S23" t="n">
-        <v>117.0897208110797</v>
+        <v>117.0897208110796</v>
       </c>
       <c r="T23" t="n">
-        <v>22.49304455734508</v>
+        <v>22.49304455734507</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4110664910537076</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,37 +32780,37 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H24" t="n">
-        <v>26.55196259533502</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I24" t="n">
-        <v>94.65617909781103</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J24" t="n">
-        <v>259.7437903115857</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K24" t="n">
-        <v>443.9435090247272</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L24" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M24" t="n">
-        <v>696.5971294879671</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N24" t="n">
-        <v>573.1387203886718</v>
+        <v>548.1235910649146</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>524.9860796892352</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691328</v>
+        <v>350.9392912691327</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S24" t="n">
         <v>51.06610426486998</v>
@@ -32862,7 +32862,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I25" t="n">
-        <v>69.31398118051423</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J25" t="n">
         <v>162.9549067838147</v>
@@ -32871,13 +32871,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L25" t="n">
-        <v>342.6725659692049</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M25" t="n">
-        <v>361.3001745754554</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N25" t="n">
-        <v>352.7092639696483</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O25" t="n">
         <v>325.7840929246177</v>
@@ -32892,10 +32892,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S25" t="n">
-        <v>40.167745442275</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T25" t="n">
-        <v>9.848117035925537</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U25" t="n">
         <v>0.1257206430118155</v>
@@ -32938,46 +32938,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H26" t="n">
-        <v>52.62293376879731</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I26" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J26" t="n">
-        <v>436.1094324383707</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K26" t="n">
-        <v>653.6149895171638</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L26" t="n">
-        <v>810.8671910869754</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M26" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N26" t="n">
-        <v>916.8452708117594</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O26" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P26" t="n">
-        <v>738.8984405829628</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q26" t="n">
-        <v>554.8819566972013</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R26" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S26" t="n">
-        <v>117.0897208110797</v>
+        <v>117.0897208110796</v>
       </c>
       <c r="T26" t="n">
-        <v>22.49304455734508</v>
+        <v>22.49304455734507</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4110664910537076</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,34 +33017,34 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H27" t="n">
-        <v>26.55196259533502</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I27" t="n">
-        <v>94.65617909781103</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J27" t="n">
-        <v>259.7437903115857</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K27" t="n">
-        <v>443.9435090247272</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L27" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M27" t="n">
-        <v>554.7018671605758</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N27" t="n">
-        <v>715.0339827160632</v>
+        <v>573.1387203886723</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>524.9860796892352</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q27" t="n">
-        <v>350.9392912691328</v>
+        <v>350.9392912691327</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33099,7 +33099,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I28" t="n">
-        <v>69.31398118051423</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J28" t="n">
         <v>162.9549067838147</v>
@@ -33108,13 +33108,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L28" t="n">
-        <v>342.6725659692049</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M28" t="n">
-        <v>361.3001745754554</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N28" t="n">
-        <v>352.7092639696483</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O28" t="n">
         <v>325.7840929246177</v>
@@ -33129,10 +33129,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S28" t="n">
-        <v>40.167745442275</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T28" t="n">
-        <v>9.848117035925537</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U28" t="n">
         <v>0.1257206430118155</v>
@@ -33175,46 +33175,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H29" t="n">
-        <v>52.62293376879731</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I29" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J29" t="n">
-        <v>436.1094324383707</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K29" t="n">
-        <v>653.6149895171638</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L29" t="n">
-        <v>810.8671910869754</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M29" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N29" t="n">
-        <v>916.8452708117594</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O29" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P29" t="n">
-        <v>738.8984405829628</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q29" t="n">
-        <v>554.8819566972013</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R29" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S29" t="n">
-        <v>117.0897208110797</v>
+        <v>117.0897208110796</v>
       </c>
       <c r="T29" t="n">
-        <v>22.49304455734508</v>
+        <v>22.49304455734507</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4110664910537076</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,34 +33254,34 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H30" t="n">
-        <v>26.55196259533502</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I30" t="n">
-        <v>94.65617909781103</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J30" t="n">
-        <v>259.7437903115857</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K30" t="n">
-        <v>443.9435090247272</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L30" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M30" t="n">
-        <v>554.7018671605758</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N30" t="n">
-        <v>715.0339827160632</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>211.6584993001647</v>
       </c>
       <c r="P30" t="n">
-        <v>524.9860796892352</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33336,7 +33336,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I31" t="n">
-        <v>69.31398118051423</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J31" t="n">
         <v>162.9549067838147</v>
@@ -33345,13 +33345,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L31" t="n">
-        <v>342.6725659692049</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M31" t="n">
-        <v>361.3001745754554</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N31" t="n">
-        <v>352.7092639696483</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O31" t="n">
         <v>325.7840929246177</v>
@@ -33366,10 +33366,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S31" t="n">
-        <v>40.167745442275</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T31" t="n">
-        <v>9.848117035925537</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U31" t="n">
         <v>0.1257206430118155</v>
@@ -33509,16 +33509,16 @@
         <v>696.597129487967</v>
       </c>
       <c r="N33" t="n">
-        <v>573.1387203886723</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P33" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33743,19 +33743,19 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M36" t="n">
-        <v>626.873981279922</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O36" t="n">
-        <v>654.1164009578284</v>
+        <v>211.6584993001647</v>
       </c>
       <c r="P36" t="n">
         <v>524.9860796892351</v>
       </c>
       <c r="Q36" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33971,7 +33971,7 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K39" t="n">
         <v>443.9435090247271</v>
@@ -33980,16 +33980,16 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M39" t="n">
-        <v>387.0453914752221</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N39" t="n">
         <v>715.033982716063</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P39" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34217,22 +34217,22 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N42" t="n">
         <v>715.033982716063</v>
       </c>
       <c r="O42" t="n">
-        <v>530.1489483592447</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P42" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486998</v>
@@ -34369,7 +34369,7 @@
         <v>436.1094324383706</v>
       </c>
       <c r="K44" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171625</v>
       </c>
       <c r="L44" t="n">
         <v>810.8671910869753</v>
@@ -34448,7 +34448,7 @@
         <v>259.7437903115856</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L45" t="n">
         <v>596.9368339155585</v>
@@ -34460,16 +34460,16 @@
         <v>715.033982716063</v>
       </c>
       <c r="O45" t="n">
-        <v>281.7879228436643</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P45" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486998</v>
@@ -34939,16 +34939,16 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2.60193731298466</v>
+        <v>2.601937312985882</v>
       </c>
       <c r="M5" t="n">
-        <v>34.88448735196069</v>
+        <v>34.88448735196206</v>
       </c>
       <c r="N5" t="n">
-        <v>34.88448735196069</v>
+        <v>34.88448735196206</v>
       </c>
       <c r="O5" t="n">
-        <v>24.40417734765299</v>
+        <v>24.4041773476543</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>34.88448735196069</v>
+        <v>34.88448735196206</v>
       </c>
       <c r="M6" t="n">
-        <v>13.1207361749311</v>
+        <v>34.88448735196206</v>
       </c>
       <c r="N6" t="n">
-        <v>34.88448735196069</v>
+        <v>13.12073617493162</v>
       </c>
       <c r="O6" t="n">
-        <v>34.88448735196069</v>
+        <v>34.88448735196206</v>
       </c>
       <c r="P6" t="n">
-        <v>20.35427694058674</v>
+        <v>20.35427694058754</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35261,10 +35261,10 @@
         <v>92.66494928910228</v>
       </c>
       <c r="N9" t="n">
-        <v>32.44591292034817</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="O9" t="n">
-        <v>91.58258828196773</v>
+        <v>31.36355191321363</v>
       </c>
       <c r="P9" t="n">
         <v>53.97475141920035</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>255.0635279116844</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K14" t="n">
-        <v>433.5251384721833</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L14" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M14" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N14" t="n">
-        <v>687.4322072151685</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O14" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P14" t="n">
-        <v>507.6654448276933</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q14" t="n">
-        <v>332.5762668227518</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R14" t="n">
-        <v>107.185155544024</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>132.906163644919</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K15" t="n">
-        <v>306.1020700503682</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L15" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N15" t="n">
-        <v>459.7248180341458</v>
+        <v>532.2460412499712</v>
       </c>
       <c r="O15" t="n">
-        <v>511.5201565133841</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P15" t="n">
-        <v>391.011672274905</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.01512932375749</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>69.59572666714192</v>
+        <v>69.59572666714186</v>
       </c>
       <c r="K16" t="n">
         <v>245.5154777892838</v>
       </c>
       <c r="L16" t="n">
-        <v>370.262591229521</v>
+        <v>370.2625912295209</v>
       </c>
       <c r="M16" t="n">
-        <v>400.884051537296</v>
+        <v>400.8840515372959</v>
       </c>
       <c r="N16" t="n">
-        <v>396.8414363488769</v>
+        <v>396.8414363488768</v>
       </c>
       <c r="O16" t="n">
-        <v>350.3692208386574</v>
+        <v>350.3692208386573</v>
       </c>
       <c r="P16" t="n">
-        <v>276.043131703092</v>
+        <v>276.0431317030919</v>
       </c>
       <c r="Q16" t="n">
         <v>106.8400972119442</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.0635279116844</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5251384721833</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N17" t="n">
-        <v>687.4322072151685</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P17" t="n">
-        <v>507.6654448276933</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227518</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R17" t="n">
-        <v>107.185155544024</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>132.906163644919</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K18" t="n">
-        <v>306.1020700503682</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L18" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M18" t="n">
-        <v>387.5527039147998</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327299</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P18" t="n">
-        <v>391.011672274905</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.01512932375749</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36042,25 +36042,25 @@
         <v>101.2059290193557</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414976</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M19" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010939</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O19" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P19" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.450299564158</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>255.0635279116844</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K20" t="n">
-        <v>433.5251384721833</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L20" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N20" t="n">
-        <v>687.4322072151685</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P20" t="n">
-        <v>507.6654448276933</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227518</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R20" t="n">
-        <v>107.185155544024</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>132.906163644919</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K21" t="n">
-        <v>306.1020700503682</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L21" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M21" t="n">
-        <v>554.4630955659488</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O21" t="n">
-        <v>441.7970083053385</v>
+        <v>387.552703914801</v>
       </c>
       <c r="P21" t="n">
-        <v>391.011672274905</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831112</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>101.2059290193557</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414976</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L22" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M22" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O22" t="n">
-        <v>381.9794231908711</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P22" t="n">
-        <v>307.6533340553103</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.4502995641579</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>255.0635279116844</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K23" t="n">
-        <v>433.5251384721833</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L23" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M23" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N23" t="n">
-        <v>687.4322072151685</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O23" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P23" t="n">
-        <v>507.6654448276933</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227518</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R23" t="n">
-        <v>107.185155544024</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>132.906163644919</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K24" t="n">
-        <v>306.1020700503682</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L24" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M24" t="n">
-        <v>554.4630955659488</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
-        <v>441.7970083053385</v>
+        <v>416.7818789815813</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>391.011672274905</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q24" t="n">
         <v>210.9575171831112</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>25.01512932375746</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L25" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M25" t="n">
-        <v>432.4942538895119</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N25" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P25" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553052</v>
       </c>
       <c r="Q25" t="n">
         <v>138.4502995641581</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>255.0635279116844</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K26" t="n">
-        <v>433.5251384721833</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L26" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M26" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N26" t="n">
-        <v>687.4322072151685</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O26" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P26" t="n">
-        <v>507.6654448276933</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q26" t="n">
-        <v>332.5762668227518</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R26" t="n">
-        <v>107.185155544024</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>132.906163644919</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K27" t="n">
-        <v>306.1020700503682</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L27" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M27" t="n">
-        <v>412.5678332385575</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N27" t="n">
-        <v>583.6922706327299</v>
+        <v>441.7970083053389</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>391.011672274905</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q27" t="n">
         <v>210.9575171831112</v>
@@ -36753,7 +36753,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L28" t="n">
         <v>401.8727935817349</v>
@@ -36765,10 +36765,10 @@
         <v>428.4516387010908</v>
       </c>
       <c r="O28" t="n">
-        <v>381.979423190873</v>
+        <v>381.9794231908705</v>
       </c>
       <c r="P28" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q28" t="n">
         <v>138.4502995641581</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>255.0635279116844</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K29" t="n">
-        <v>433.5251384721833</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L29" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M29" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N29" t="n">
-        <v>687.4322072151685</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O29" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P29" t="n">
-        <v>507.6654448276933</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q29" t="n">
-        <v>332.5762668227518</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R29" t="n">
-        <v>107.185155544024</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>132.906163644919</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K30" t="n">
-        <v>306.1020700503682</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L30" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M30" t="n">
-        <v>412.5678332385575</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N30" t="n">
-        <v>583.6922706327299</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>69.06225485572025</v>
       </c>
       <c r="P30" t="n">
-        <v>391.011672274905</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>101.2059290193557</v>
+        <v>101.2059290193553</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414976</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L31" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895129</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P31" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.450299564158</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37157,16 +37157,16 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N33" t="n">
-        <v>441.7970083053389</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L34" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M34" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O34" t="n">
-        <v>381.9794231908735</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P34" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.450299564158</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,19 +37391,19 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M36" t="n">
-        <v>484.7399473579036</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O36" t="n">
-        <v>511.520156513384</v>
+        <v>69.06225485572025</v>
       </c>
       <c r="P36" t="n">
         <v>391.0116722749049</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K39" t="n">
         <v>306.1020700503681</v>
@@ -37628,16 +37628,16 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M39" t="n">
-        <v>244.9113575532038</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N39" t="n">
         <v>583.6922706327297</v>
       </c>
       <c r="O39" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P39" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>101.2059290193557</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414976</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908742</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P40" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.450299564158</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
         <v>583.6922706327297</v>
       </c>
       <c r="O42" t="n">
-        <v>387.5527039148003</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P42" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193557</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414978</v>
+        <v>277.125680141501</v>
       </c>
       <c r="L43" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M43" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N43" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O43" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908711</v>
       </c>
       <c r="P43" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>255.0635279116843</v>
       </c>
       <c r="K44" t="n">
-        <v>433.5251384721832</v>
+        <v>433.525138472182</v>
       </c>
       <c r="L44" t="n">
         <v>575.1007761169881</v>
@@ -38096,7 +38096,7 @@
         <v>132.9061636449189</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L45" t="n">
         <v>458.3824541356843</v>
@@ -38108,16 +38108,16 @@
         <v>583.6922706327297</v>
       </c>
       <c r="O45" t="n">
-        <v>139.1916783992199</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P45" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
